--- a/Projects/HEINEKENMX/Cerveza/Data/KPI Template (External Targets) Feb18.xlsx
+++ b/Projects/HEINEKENMX/Cerveza/Data/KPI Template (External Targets) Feb18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Planograma_cerveza" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,12 +26,16 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planograma_cerveza!$A$2:$N$570</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planograma_cerveza!$A$2:$N$570</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Planograma_cerveza!$A$2:$N$570</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Planograma_cerveza!$A$2:$N$570</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Acomodo_cigarros!$A$2:$L$234</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Acomodo_cigarros!$A$2:$L$234</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Acomodo_cigarros!$A$2:$L$234</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Acomodo_Bebidas!$A$2:$L$290</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Acomodo_Bebidas!$A$2:$L$290</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Acomodo_Bebidas!$A$2:$L$290</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Acomodo_Botanas!$A$2:$G$143</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Acomodo_Botanas!$A$2:$G$143</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Acomodo_Botanas!$A$2:$G$143</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -837,7 +841,7 @@
     <t xml:space="preserve">Invasion </t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturer </t>
+    <t xml:space="preserve">Manufacturer</t>
   </si>
   <si>
     <t xml:space="preserve">Category</t>
@@ -1837,9 +1841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>171000</xdr:colOff>
+      <xdr:colOff>170640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>358200</xdr:rowOff>
+      <xdr:rowOff>357840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1853,7 +1857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="141840" y="20520"/>
-          <a:ext cx="1172160" cy="337680"/>
+          <a:ext cx="1200240" cy="337320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1926,9 +1930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>358200</xdr:rowOff>
+      <xdr:rowOff>357840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1942,7 +1946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="141120" y="20520"/>
-          <a:ext cx="1155240" cy="337680"/>
+          <a:ext cx="1173960" cy="337320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2015,9 +2019,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1000800</xdr:colOff>
+      <xdr:colOff>1000440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>358200</xdr:rowOff>
+      <xdr:rowOff>357840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2031,7 +2035,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="110520" y="20520"/>
-          <a:ext cx="890280" cy="337680"/>
+          <a:ext cx="889920" cy="337320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2104,9 +2108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1000800</xdr:colOff>
+      <xdr:colOff>1000440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>358200</xdr:rowOff>
+      <xdr:rowOff>357840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2120,7 +2124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="110520" y="20520"/>
-          <a:ext cx="890280" cy="337680"/>
+          <a:ext cx="889920" cy="337320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2188,9 +2192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000800</xdr:colOff>
+      <xdr:colOff>1000440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>358200</xdr:rowOff>
+      <xdr:rowOff>357840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2203,8 +2207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3243960" y="20520"/>
-          <a:ext cx="890280" cy="337680"/>
+          <a:off x="3320280" y="20520"/>
+          <a:ext cx="889920" cy="337320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2236,7 +2240,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133440" y="0"/>
+          <a:off x="3209760" y="0"/>
           <a:ext cx="360" cy="377640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2301,7 +2305,7 @@
   </sheetPr>
   <dimension ref="A1:N65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="K538" activeCellId="0" sqref="K538"/>
@@ -2309,15 +2313,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.0222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8925925925926"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.7259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8074074074074"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3814814814815"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8444444444444"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="43.8037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.0518518518519"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22807,7 +22811,7 @@
       </c>
       <c r="K537" s="0" t="e">
         <f aca="false">IF(J537+H537=#REF!,IFERROR(IF(J536+H536=H537,"",IF(I536&lt;&gt;I537,IF(#REF!+#REF!=#REF!,"",IF(#REF!&lt;&gt;#REF!,"","Surrounding Error")),"Surrounding Error")),""),IF(I537&lt;&gt;#REF!,IFERROR(IF(J536+H536=H537,"",IF(I536&lt;&gt;I537,IF(#REF!+#REF!=#REF!,"",IF(#REF!&lt;&gt;#REF!,"","Surrounding Error")),"Surrounding Error")),""),"Error"))</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L537" s="0" t="s">
         <v>52</v>
@@ -24399,16 +24403,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0925925925926"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.11481481481482"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.7444444444445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="9" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="11.7592592592593"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.1444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2888888888889"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.7259259259259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="9" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="12.0518518518519"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.7333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.0518518518519"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32672,13 +32676,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.5111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.4925925925926"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9925925925926"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="12.0518518518519"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41101,15 +41105,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.3037037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.4333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.7592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.2962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9925925925926"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.7962962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.3148148148148"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.0518518518519"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44409,18 +44413,18 @@
   </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.4296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.6037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9814814814815"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44765,11 +44769,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="22" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="15.0925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="22" width="11.8555555555556"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45415,13 +45419,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.1"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="51.1518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.0777777777778"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.0777777777778"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="52.4259259259259"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
